--- a/Issues.xlsx
+++ b/Issues.xlsx
@@ -10,8 +10,8 @@
     <sheet name="Other" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ScriptAnalyzer'!$A$1:$E$7</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Other'!$A$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ScriptAnalyzer'!$A$1:$E$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Other'!$A$1:$A$2</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
   <pivotCaches>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Catagory</t>
   </si>
@@ -44,16 +44,25 @@
     <t>Invoke-PSConfigFile.ps1</t>
   </si>
   <si>
+    <t>PSAvoidTrailingWhitespace</t>
+  </si>
+  <si>
+    <t>Line has trailing whitespace</t>
+  </si>
+  <si>
     <t>PSReviewUnusedParameter</t>
   </si>
   <si>
     <t xml:space="preserve">The parameter 'ConfigFile' has been declared but not used. </t>
   </si>
   <si>
-    <t>PSAvoidTrailingWhitespace</t>
-  </si>
-  <si>
-    <t>Line has trailing whitespace</t>
+    <t>PSAvoidGlobalVars</t>
+  </si>
+  <si>
+    <t>Found global variable 'global:PSConfigFileOutput'.</t>
+  </si>
+  <si>
+    <t>Show-PSConfigFile.ps1</t>
   </si>
 </sst>
 </file>
@@ -107,7 +116,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="SomeUser" refreshedDate="40504.582403125001" createdVersion="1" refreshedVersion="3" recordCount="5" upgradeOnRefresh="1">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:E7" sheet="ScriptAnalyzer"/>
+    <worksheetSource ref="A1:E12" sheet="ScriptAnalyzer"/>
   </cacheSource>
   <cacheFields count="5">
     <cacheField name="Catagory" numFmtId="0">
@@ -159,7 +168,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" state="frozen" activePane="bottomLeft"/>
@@ -168,11 +177,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.98719310760498" customWidth="1"/>
-    <col min="2" max="2" width="22.28936767578125" customWidth="1"/>
-    <col min="3" max="3" width="25.836336135864258" customWidth="1"/>
+    <col min="1" max="1" width="13.987193107605" customWidth="1"/>
+    <col min="2" max="2" width="22.2893676757813" customWidth="1"/>
+    <col min="3" max="3" width="25.8363361358643" customWidth="1"/>
     <col min="4" max="4" width="9.140625" customWidth="1"/>
-    <col min="5" max="5" width="53.227882385253906" customWidth="1"/>
+    <col min="5" max="5" width="53.2278823852539" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -203,7 +212,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="0">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>8</v>
@@ -217,13 +226,13 @@
         <v>6</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D3" s="0">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -234,13 +243,13 @@
         <v>6</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D4" s="0">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -251,13 +260,13 @@
         <v>6</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D5" s="0">
-        <v>97</v>
+        <v>179</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -268,13 +277,13 @@
         <v>6</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D6" s="0">
-        <v>98</v>
+        <v>180</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -288,14 +297,99 @@
         <v>9</v>
       </c>
       <c r="D7" s="0">
-        <v>165</v>
+        <v>72</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>10</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="0">
+        <v>165</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="0">
+        <v>90</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="0">
+        <v>99</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="0">
+        <v>103</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="0">
+        <v>123</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E7"/>
+  <autoFilter ref="A1:E12"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -329,7 +423,7 @@
       <c r="A1" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A1"/>
+  <autoFilter ref="A1:A2"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/Issues.xlsx
+++ b/Issues.xlsx
@@ -8,14 +8,14 @@
     <sheet name="Other" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Other'!$A$1:$C$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Other'!$A$1:$C$34</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>Catagory</t>
   </si>
@@ -32,64 +32,85 @@
     <t>gitpull.md</t>
   </si>
   <si>
+    <t xml:space="preserve">gitpull.md -  - {{ Add example description here }}</t>
+  </si>
+  <si>
+    <t>gitpush.md</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gitpush.md -  - {{ Add example description here }}</t>
+  </si>
+  <si>
+    <t>set-location-AllUsersModules.md</t>
+  </si>
+  <si>
+    <t xml:space="preserve">set-location-AllUsersModules.md -  - {{ Add example description here }}</t>
+  </si>
+  <si>
+    <t>set-location-labscripts.md</t>
+  </si>
+  <si>
+    <t xml:space="preserve">set-location-labscripts.md -  - {{ Add example description here }}</t>
+  </si>
+  <si>
+    <t>set-location-prodmodules.md</t>
+  </si>
+  <si>
+    <t xml:space="preserve">set-location-prodmodules.md -  - {{ Add example description here }}</t>
+  </si>
+  <si>
+    <t>set-location-psmodules.md</t>
+  </si>
+  <si>
+    <t xml:space="preserve">set-location-psmodules.md -  - {{ Add example description here }}</t>
+  </si>
+  <si>
+    <t>Remove-ConfigFromPSConfigFile.md</t>
+  </si>
+  <si>
+    <t>Remove-ConfigFromPSConfigFile.md - ### -Alias - {{ Fill Alias Description }}</t>
+  </si>
+  <si>
+    <t>gitpull.md - ## DESCRIPTION - {{ Fill in the Description }}</t>
+  </si>
+  <si>
+    <t>gitpush.md - ## DESCRIPTION - {{ Fill in the Description }}</t>
+  </si>
+  <si>
+    <t>set-location-AllUsersModules.md - ## DESCRIPTION - {{ Fill in the Description }}</t>
+  </si>
+  <si>
+    <t>set-location-labscripts.md - ## DESCRIPTION - {{ Fill in the Description }}</t>
+  </si>
+  <si>
+    <t>set-location-prodmodules.md - ## DESCRIPTION - {{ Fill in the Description }}</t>
+  </si>
+  <si>
+    <t>set-location-psmodules.md - ## DESCRIPTION - {{ Fill in the Description }}</t>
+  </si>
+  <si>
     <t>gitpull.md - ## SYNOPSIS - {{ Fill in the Synopsis }}</t>
   </si>
   <si>
-    <t>gitpush.md</t>
-  </si>
-  <si>
     <t>gitpush.md - ## SYNOPSIS - {{ Fill in the Synopsis }}</t>
   </si>
   <si>
-    <t>importmod.md</t>
-  </si>
-  <si>
-    <t>importmod.md - ## SYNOPSIS - {{ Fill in the Synopsis }}</t>
-  </si>
-  <si>
-    <t>set-location-AllUsersModules.md</t>
-  </si>
-  <si>
     <t>set-location-AllUsersModules.md - ## SYNOPSIS - {{ Fill in the Synopsis }}</t>
   </si>
   <si>
-    <t>set-location-labscripts.md</t>
-  </si>
-  <si>
     <t>set-location-labscripts.md - ## SYNOPSIS - {{ Fill in the Synopsis }}</t>
   </si>
   <si>
-    <t>set-location-prodmodules.md</t>
-  </si>
-  <si>
     <t>set-location-prodmodules.md - ## SYNOPSIS - {{ Fill in the Synopsis }}</t>
   </si>
   <si>
-    <t>set-location-psmodules.md</t>
-  </si>
-  <si>
     <t>set-location-psmodules.md - ## SYNOPSIS - {{ Fill in the Synopsis }}</t>
   </si>
   <si>
-    <t>gitpull.md - ## DESCRIPTION - {{ Fill in the Description }}</t>
-  </si>
-  <si>
-    <t>gitpush.md - ## DESCRIPTION - {{ Fill in the Description }}</t>
-  </si>
-  <si>
-    <t>importmod.md - ## DESCRIPTION - {{ Fill in the Description }}</t>
-  </si>
-  <si>
-    <t>set-location-AllUsersModules.md - ## DESCRIPTION - {{ Fill in the Description }}</t>
-  </si>
-  <si>
-    <t>set-location-labscripts.md - ## DESCRIPTION - {{ Fill in the Description }}</t>
-  </si>
-  <si>
-    <t>set-location-prodmodules.md - ## DESCRIPTION - {{ Fill in the Description }}</t>
-  </si>
-  <si>
-    <t>set-location-psmodules.md - ## DESCRIPTION - {{ Fill in the Description }}</t>
+    <t>Remove-ConfigFromPSConfigFile.md - ### -PSDrive - {{ Fill PSDrive Description }}</t>
+  </si>
+  <si>
+    <t>Remove-ConfigFromPSConfigFile.md - ### -Variable - {{ Fill Variable Description }}</t>
   </si>
   <si>
     <t>gitpull.md - ```powershell - PS C:\&gt; {{ Add example code here }}</t>
@@ -98,9 +119,6 @@
     <t>gitpush.md - ```powershell - PS C:\&gt; {{ Add example code here }}</t>
   </si>
   <si>
-    <t>importmod.md - ```powershell - PS C:\&gt; {{ Add example code here }}</t>
-  </si>
-  <si>
     <t>set-location-AllUsersModules.md - ```powershell - PS C:\&gt; {{ Add example code here }}</t>
   </si>
   <si>
@@ -113,39 +131,6 @@
     <t>set-location-psmodules.md - ```powershell - PS C:\&gt; {{ Add example code here }}</t>
   </si>
   <si>
-    <t xml:space="preserve">gitpull.md -  - {{ Add example description here }}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gitpush.md -  - {{ Add example description here }}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">importmod.md -  - {{ Add example description here }}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set-location-AllUsersModules.md -  - {{ Add example description here }}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set-location-labscripts.md -  - {{ Add example description here }}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set-location-prodmodules.md -  - {{ Add example description here }}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set-location-psmodules.md -  - {{ Add example description here }}</t>
-  </si>
-  <si>
-    <t>Remove-ConfigFromPSConfigFile.md</t>
-  </si>
-  <si>
-    <t>Remove-ConfigFromPSConfigFile.md - ### -Variable - {{ Fill Variable Description }}</t>
-  </si>
-  <si>
-    <t>Remove-ConfigFromPSConfigFile.md - ### -PSDrive - {{ Fill PSDrive Description }}</t>
-  </si>
-  <si>
-    <t>Remove-ConfigFromPSConfigFile.md - ### -Alias - {{ Fill Alias Description }}</t>
-  </si>
-  <si>
     <t>Not Copied</t>
   </si>
   <si>
@@ -156,9 +141,6 @@
   </si>
   <si>
     <t>gitpush</t>
-  </si>
-  <si>
-    <t>importmod</t>
   </si>
   <si>
     <t>set-location-AllUsersModules</t>
@@ -222,7 +204,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" state="frozen" activePane="bottomLeft"/>
@@ -231,9 +213,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.1482801437378" customWidth="1"/>
-    <col min="2" max="2" width="33.5840110778809" customWidth="1"/>
-    <col min="3" max="3" width="76.6397018432617" customWidth="1"/>
+    <col min="1" max="1" width="13.148280143737793" customWidth="1"/>
+    <col min="2" max="2" width="33.58401107788086" customWidth="1"/>
+    <col min="3" max="3" width="76.63970184326172" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -395,7 +377,7 @@
         <v>3</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>24</v>
@@ -406,7 +388,7 @@
         <v>3</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>25</v>
@@ -417,7 +399,7 @@
         <v>3</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>26</v>
@@ -428,7 +410,7 @@
         <v>3</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>27</v>
@@ -439,7 +421,7 @@
         <v>3</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>28</v>
@@ -450,7 +432,7 @@
         <v>3</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>29</v>
@@ -461,7 +443,7 @@
         <v>3</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>30</v>
@@ -546,21 +528,21 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C30" s="0" t="s">
         <v>40</v>
@@ -568,105 +550,50 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B33" s="0" t="s">
         <v>44</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="B35" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="C35" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="B36" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="C36" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="B37" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="C37" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="B38" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="C38" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="B39" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="C39" s="0" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C39"/>
+  <autoFilter ref="A1:C34"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/Issues.xlsx
+++ b/Issues.xlsx
@@ -8,14 +8,14 @@
     <sheet name="Other" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Other'!$A$1:$C$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Other'!$A$1:$C$31</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Catagory</t>
   </si>
@@ -32,103 +32,91 @@
     <t>gitpull.md</t>
   </si>
   <si>
+    <t>gitpull.md - ## SYNOPSIS - {{ Fill in the Synopsis }}</t>
+  </si>
+  <si>
+    <t>gitpush.md</t>
+  </si>
+  <si>
+    <t>gitpush.md - ## SYNOPSIS - {{ Fill in the Synopsis }}</t>
+  </si>
+  <si>
+    <t>set-location-AllUsersModules.md</t>
+  </si>
+  <si>
+    <t>set-location-AllUsersModules.md - ## SYNOPSIS - {{ Fill in the Synopsis }}</t>
+  </si>
+  <si>
+    <t>set-location-labscripts.md</t>
+  </si>
+  <si>
+    <t>set-location-labscripts.md - ## SYNOPSIS - {{ Fill in the Synopsis }}</t>
+  </si>
+  <si>
+    <t>set-location-prodmodules.md</t>
+  </si>
+  <si>
+    <t>set-location-prodmodules.md - ## SYNOPSIS - {{ Fill in the Synopsis }}</t>
+  </si>
+  <si>
+    <t>set-location-psmodules.md</t>
+  </si>
+  <si>
+    <t>set-location-psmodules.md - ## SYNOPSIS - {{ Fill in the Synopsis }}</t>
+  </si>
+  <si>
+    <t>gitpull.md - ## DESCRIPTION - {{ Fill in the Description }}</t>
+  </si>
+  <si>
+    <t>gitpush.md - ## DESCRIPTION - {{ Fill in the Description }}</t>
+  </si>
+  <si>
+    <t>set-location-AllUsersModules.md - ## DESCRIPTION - {{ Fill in the Description }}</t>
+  </si>
+  <si>
+    <t>set-location-labscripts.md - ## DESCRIPTION - {{ Fill in the Description }}</t>
+  </si>
+  <si>
+    <t>set-location-prodmodules.md - ## DESCRIPTION - {{ Fill in the Description }}</t>
+  </si>
+  <si>
+    <t>set-location-psmodules.md - ## DESCRIPTION - {{ Fill in the Description }}</t>
+  </si>
+  <si>
+    <t>gitpull.md - ```powershell - PS C:\&gt; {{ Add example code here }}</t>
+  </si>
+  <si>
+    <t>gitpush.md - ```powershell - PS C:\&gt; {{ Add example code here }}</t>
+  </si>
+  <si>
+    <t>set-location-AllUsersModules.md - ```powershell - PS C:\&gt; {{ Add example code here }}</t>
+  </si>
+  <si>
+    <t>set-location-labscripts.md - ```powershell - PS C:\&gt; {{ Add example code here }}</t>
+  </si>
+  <si>
+    <t>set-location-prodmodules.md - ```powershell - PS C:\&gt; {{ Add example code here }}</t>
+  </si>
+  <si>
+    <t>set-location-psmodules.md - ```powershell - PS C:\&gt; {{ Add example code here }}</t>
+  </si>
+  <si>
     <t xml:space="preserve">gitpull.md -  - {{ Add example description here }}</t>
   </si>
   <si>
-    <t>gitpush.md</t>
-  </si>
-  <si>
     <t xml:space="preserve">gitpush.md -  - {{ Add example description here }}</t>
   </si>
   <si>
-    <t>set-location-AllUsersModules.md</t>
-  </si>
-  <si>
     <t xml:space="preserve">set-location-AllUsersModules.md -  - {{ Add example description here }}</t>
   </si>
   <si>
-    <t>set-location-labscripts.md</t>
-  </si>
-  <si>
     <t xml:space="preserve">set-location-labscripts.md -  - {{ Add example description here }}</t>
   </si>
   <si>
-    <t>set-location-prodmodules.md</t>
-  </si>
-  <si>
     <t xml:space="preserve">set-location-prodmodules.md -  - {{ Add example description here }}</t>
   </si>
   <si>
-    <t>set-location-psmodules.md</t>
-  </si>
-  <si>
     <t xml:space="preserve">set-location-psmodules.md -  - {{ Add example description here }}</t>
-  </si>
-  <si>
-    <t>Remove-ConfigFromPSConfigFile.md</t>
-  </si>
-  <si>
-    <t>Remove-ConfigFromPSConfigFile.md - ### -Alias - {{ Fill Alias Description }}</t>
-  </si>
-  <si>
-    <t>gitpull.md - ## DESCRIPTION - {{ Fill in the Description }}</t>
-  </si>
-  <si>
-    <t>gitpush.md - ## DESCRIPTION - {{ Fill in the Description }}</t>
-  </si>
-  <si>
-    <t>set-location-AllUsersModules.md - ## DESCRIPTION - {{ Fill in the Description }}</t>
-  </si>
-  <si>
-    <t>set-location-labscripts.md - ## DESCRIPTION - {{ Fill in the Description }}</t>
-  </si>
-  <si>
-    <t>set-location-prodmodules.md - ## DESCRIPTION - {{ Fill in the Description }}</t>
-  </si>
-  <si>
-    <t>set-location-psmodules.md - ## DESCRIPTION - {{ Fill in the Description }}</t>
-  </si>
-  <si>
-    <t>gitpull.md - ## SYNOPSIS - {{ Fill in the Synopsis }}</t>
-  </si>
-  <si>
-    <t>gitpush.md - ## SYNOPSIS - {{ Fill in the Synopsis }}</t>
-  </si>
-  <si>
-    <t>set-location-AllUsersModules.md - ## SYNOPSIS - {{ Fill in the Synopsis }}</t>
-  </si>
-  <si>
-    <t>set-location-labscripts.md - ## SYNOPSIS - {{ Fill in the Synopsis }}</t>
-  </si>
-  <si>
-    <t>set-location-prodmodules.md - ## SYNOPSIS - {{ Fill in the Synopsis }}</t>
-  </si>
-  <si>
-    <t>set-location-psmodules.md - ## SYNOPSIS - {{ Fill in the Synopsis }}</t>
-  </si>
-  <si>
-    <t>Remove-ConfigFromPSConfigFile.md - ### -PSDrive - {{ Fill PSDrive Description }}</t>
-  </si>
-  <si>
-    <t>Remove-ConfigFromPSConfigFile.md - ### -Variable - {{ Fill Variable Description }}</t>
-  </si>
-  <si>
-    <t>gitpull.md - ```powershell - PS C:\&gt; {{ Add example code here }}</t>
-  </si>
-  <si>
-    <t>gitpush.md - ```powershell - PS C:\&gt; {{ Add example code here }}</t>
-  </si>
-  <si>
-    <t>set-location-AllUsersModules.md - ```powershell - PS C:\&gt; {{ Add example code here }}</t>
-  </si>
-  <si>
-    <t>set-location-labscripts.md - ```powershell - PS C:\&gt; {{ Add example code here }}</t>
-  </si>
-  <si>
-    <t>set-location-prodmodules.md - ```powershell - PS C:\&gt; {{ Add example code here }}</t>
-  </si>
-  <si>
-    <t>set-location-psmodules.md - ```powershell - PS C:\&gt; {{ Add example code here }}</t>
   </si>
   <si>
     <t>Not Copied</t>
@@ -204,7 +192,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" state="frozen" activePane="bottomLeft"/>
@@ -213,9 +201,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.148280143737793" customWidth="1"/>
-    <col min="2" max="2" width="33.58401107788086" customWidth="1"/>
-    <col min="3" max="3" width="76.63970184326172" customWidth="1"/>
+    <col min="1" max="1" width="13.1482801437378" customWidth="1"/>
+    <col min="2" max="2" width="30.6488361358643" customWidth="1"/>
+    <col min="3" max="3" width="76.6397018432617" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -300,10 +288,10 @@
         <v>3</v>
       </c>
       <c r="B8" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="0" t="s">
         <v>16</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="9">
@@ -311,10 +299,10 @@
         <v>3</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10">
@@ -322,10 +310,10 @@
         <v>3</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
@@ -333,10 +321,10 @@
         <v>3</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12">
@@ -344,10 +332,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13">
@@ -355,10 +343,10 @@
         <v>3</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14">
@@ -366,10 +354,10 @@
         <v>3</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15">
@@ -377,10 +365,10 @@
         <v>3</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16">
@@ -388,10 +376,10 @@
         <v>3</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17">
@@ -399,10 +387,10 @@
         <v>3</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18">
@@ -410,10 +398,10 @@
         <v>3</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19">
@@ -421,10 +409,10 @@
         <v>3</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20">
@@ -432,10 +420,10 @@
         <v>3</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21">
@@ -443,10 +431,10 @@
         <v>3</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22">
@@ -454,10 +442,10 @@
         <v>3</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23">
@@ -465,10 +453,10 @@
         <v>3</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24">
@@ -476,10 +464,10 @@
         <v>3</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25">
@@ -487,29 +475,29 @@
         <v>3</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="C27" s="0" t="s">
         <v>36</v>
@@ -517,83 +505,50 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B29" s="0" t="s">
         <v>39</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="B32" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="C33" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="B34" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="C34" s="0" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C34"/>
+  <autoFilter ref="A1:C31"/>
   <headerFooter/>
 </worksheet>
 </file>